--- a/Team-Data/2007-08/2-5-2007-08.xlsx
+++ b/Team-Data/2007-08/2-5-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -771,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
@@ -795,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>20</v>
@@ -810,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J3" t="n">
         <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
         <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
         <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -965,22 +1032,22 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -989,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
@@ -1123,13 +1190,13 @@
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1344,13 +1411,13 @@
         <v>20</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
         <v>4.6</v>
@@ -1463,25 +1530,25 @@
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="n">
         <v>14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1493,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1508,31 +1575,31 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1666,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1887,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2054,13 +2121,13 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>24</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2239,13 +2306,13 @@
         <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2424,22 +2491,22 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2516,55 +2583,55 @@
         <v>24.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>0.764</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T12" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2606,28 +2673,28 @@
         <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT12" t="n">
         <v>5</v>
       </c>
-      <c r="AT12" t="n">
-        <v>6</v>
-      </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW12" t="n">
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2791,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
         <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>10</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
         <v>7</v>
@@ -2812,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66</v>
+        <v>0.652</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7.3</v>
@@ -2886,10 +2953,10 @@
         <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
@@ -2898,13 +2965,13 @@
         <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
         <v>8.1</v>
@@ -2913,7 +2980,7 @@
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
@@ -2925,13 +2992,13 @@
         <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2976,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2991,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.271</v>
+        <v>0.277</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,43 +3117,43 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.461</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.369</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>20.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W15" t="n">
         <v>5.8</v>
@@ -3095,34 +3162,34 @@
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3143,22 +3210,22 @@
         <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3170,10 +3237,10 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3325,10 +3392,10 @@
         <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3352,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>80.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
@@ -3426,79 +3493,79 @@
         <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O17" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
         <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
@@ -3513,7 +3580,7 @@
         <v>27</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>11</v>
@@ -3522,31 +3589,31 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -3760,43 +3827,43 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.417</v>
+        <v>0.426</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O19" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.716</v>
@@ -3805,16 +3872,16 @@
         <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U19" t="n">
         <v>23.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
         <v>6.4</v>
@@ -3826,19 +3893,19 @@
         <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,10 +3929,10 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>27</v>
@@ -3889,7 +3956,7 @@
         <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3898,16 +3965,16 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4047,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -4250,16 +4317,16 @@
         <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4496,7 @@
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4488,112 +4555,112 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.706</v>
+        <v>0.709</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4608,7 +4675,7 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
         <v>29</v>
@@ -4629,19 +4696,19 @@
         <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4784,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4814,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>22</v>
@@ -4978,7 +5045,7 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -4999,10 +5066,10 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5127,10 +5194,10 @@
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
@@ -5151,10 +5218,10 @@
         <v>7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>23</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.652</v>
+        <v>0.644</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
         <v>0.376</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.755</v>
@@ -5261,13 +5328,13 @@
         <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T27" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U27" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
@@ -5279,22 +5346,22 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="AC27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>9</v>
@@ -5309,19 +5376,19 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN27" t="n">
         <v>6</v>
@@ -5330,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
@@ -5339,13 +5406,13 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5357,16 +5424,16 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5515,10 +5582,10 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5536,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
         <v>23</v>
@@ -5545,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.5</v>
       </c>
       <c r="AD29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE29" t="n">
         <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.511</v>
+        <v>0.522</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,7 +6029,7 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
         <v>0.445</v>
@@ -5971,7 +6038,7 @@
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N31" t="n">
         <v>0.343</v>
@@ -5980,49 +6047,49 @@
         <v>19.4</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T31" t="n">
         <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6061,13 +6128,13 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6079,19 +6146,19 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2007-08</t>
+          <t>2008-02-05</t>
         </is>
       </c>
     </row>
